--- a/Superficie_pop_2021.xlsx
+++ b/Superficie_pop_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/severinebrelaud/Documents/Master/M2/Traitement des données/DATA_/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C037449-5484-2D45-9932-FF8384DE0272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B6F91A-6C88-334F-B83E-8B69DC2AE40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,6 @@
     <t>Région</t>
   </si>
   <si>
-    <t>Superficie 
-(km² )</t>
-  </si>
-  <si>
-    <t>Population 
-(habitants)</t>
-  </si>
-  <si>
     <t>Auvergne-Rhône-Alpes</t>
   </si>
   <si>
@@ -196,6 +188,12 @@
   </si>
   <si>
     <t>IGN; Insee - Estimations de population au 1er janvier par région</t>
+  </si>
+  <si>
+    <t>Population (habitants)</t>
+  </si>
+  <si>
+    <t>Superficie (km² )</t>
   </si>
 </sst>
 </file>
@@ -319,36 +317,6 @@
   <dxfs count="6">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -412,16 +380,46 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="medium">
           <color auto="1"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="medium">
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
           <color auto="1"/>
-        </top>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -438,12 +436,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B2D68331-578A-7C41-A8F4-0E3D2FF64ECF}" name="Tabella1" displayName="Tabella1" ref="A1:C20" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B2D68331-578A-7C41-A8F4-0E3D2FF64ECF}" name="Tabella1" displayName="Tabella1" ref="A1:C20" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A1:C20" xr:uid="{B2D68331-578A-7C41-A8F4-0E3D2FF64ECF}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BE5B62F3-480A-944F-9270-41AD7245F39F}" name="Région" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{4CAF2DFC-E262-6945-9533-71CA559F1174}" name="Superficie _x000a_(km² )" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{88666A52-7753-8C48-BCD0-B035C07E9282}" name="Population _x000a_(habitants)" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{BE5B62F3-480A-944F-9270-41AD7245F39F}" name="Région" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{4CAF2DFC-E262-6945-9533-71CA559F1174}" name="Superficie (km² )" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{88666A52-7753-8C48-BCD0-B035C07E9282}" name="Population (habitants)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -749,7 +747,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -763,10 +761,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="10"/>
@@ -784,13 +782,13 @@
     </row>
     <row r="2" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
@@ -808,13 +806,13 @@
     </row>
     <row r="3" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="7"/>
@@ -832,13 +830,13 @@
     </row>
     <row r="4" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="8"/>
@@ -856,13 +854,13 @@
     </row>
     <row r="5" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="8"/>
@@ -880,13 +878,13 @@
     </row>
     <row r="6" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="8"/>
@@ -904,13 +902,13 @@
     </row>
     <row r="7" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="7"/>
@@ -928,13 +926,13 @@
     </row>
     <row r="8" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="8"/>
@@ -952,13 +950,13 @@
     </row>
     <row r="9" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="8"/>
@@ -976,13 +974,13 @@
     </row>
     <row r="10" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="8"/>
@@ -1000,13 +998,13 @@
     </row>
     <row r="11" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="7"/>
@@ -1024,13 +1022,13 @@
     </row>
     <row r="12" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="8"/>
@@ -1048,13 +1046,13 @@
     </row>
     <row r="13" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8"/>
@@ -1072,13 +1070,13 @@
     </row>
     <row r="14" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="7"/>
@@ -1096,13 +1094,13 @@
     </row>
     <row r="15" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="7"/>
@@ -1120,13 +1118,13 @@
     </row>
     <row r="16" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="7"/>
@@ -1144,13 +1142,13 @@
     </row>
     <row r="17" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="7"/>
@@ -1168,13 +1166,13 @@
     </row>
     <row r="18" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="8"/>
@@ -1192,13 +1190,13 @@
     </row>
     <row r="19" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
@@ -1216,10 +1214,10 @@
     </row>
     <row r="20" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Superficie_pop_2021.xlsx
+++ b/Superficie_pop_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/severinebrelaud/Documents/Master/M2/Traitement des données/DATA_/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B6F91A-6C88-334F-B83E-8B69DC2AE40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A63AAB-456C-7542-A4F9-65C5C9A68574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Région</t>
   </si>
@@ -28,160 +28,55 @@
     <t>Auvergne-Rhône-Alpes</t>
   </si>
   <si>
-    <t>69 711</t>
-  </si>
-  <si>
-    <t>8 090 442</t>
-  </si>
-  <si>
     <t>Bourgogne-Franche-Comté</t>
   </si>
   <si>
-    <t>47 784</t>
-  </si>
-  <si>
-    <t>2 784 858</t>
-  </si>
-  <si>
     <t>Bretagne</t>
   </si>
   <si>
-    <t>27 208</t>
-  </si>
-  <si>
-    <t>3 371 158</t>
-  </si>
-  <si>
     <t>Centre-Val de Loire</t>
   </si>
   <si>
-    <t>39 151</t>
-  </si>
-  <si>
     <t>Corse</t>
   </si>
   <si>
-    <t>8 680</t>
-  </si>
-  <si>
-    <t>349 269</t>
-  </si>
-  <si>
     <t>Grand Est</t>
   </si>
   <si>
-    <t>57 433</t>
-  </si>
-  <si>
-    <t>5 522 476</t>
-  </si>
-  <si>
     <t>Guadeloupe</t>
   </si>
   <si>
-    <t>1 703</t>
-  </si>
-  <si>
-    <t>375 693</t>
-  </si>
-  <si>
     <t>Guyane</t>
   </si>
   <si>
-    <t>83 534</t>
-  </si>
-  <si>
-    <t>294 146</t>
-  </si>
-  <si>
     <t>Hauts-de-France</t>
   </si>
   <si>
-    <t>31 813</t>
-  </si>
-  <si>
-    <t>5 975 757</t>
-  </si>
-  <si>
     <t>Île-de-France</t>
   </si>
   <si>
-    <t>12 011</t>
-  </si>
-  <si>
-    <t>12 324 261</t>
-  </si>
-  <si>
     <t>Martinique</t>
   </si>
   <si>
-    <t>1 128</t>
-  </si>
-  <si>
-    <t>354 824</t>
-  </si>
-  <si>
     <t>Mayotte</t>
   </si>
   <si>
-    <t>2 504</t>
-  </si>
-  <si>
-    <t>288 926</t>
-  </si>
-  <si>
     <t>Normandie</t>
   </si>
   <si>
-    <t>29 906</t>
-  </si>
-  <si>
-    <t>3 305 218</t>
-  </si>
-  <si>
     <t>Nouvelle-Aquitaine</t>
   </si>
   <si>
-    <t>83 809</t>
-  </si>
-  <si>
-    <t>6 039 092</t>
-  </si>
-  <si>
     <t>Occitanie</t>
   </si>
   <si>
-    <t>72 724</t>
-  </si>
-  <si>
-    <t>5 985 697</t>
-  </si>
-  <si>
     <t>Pays de la Loire</t>
   </si>
   <si>
-    <t>32 082</t>
-  </si>
-  <si>
-    <t>3 837 166</t>
-  </si>
-  <si>
     <t>Réunion</t>
   </si>
   <si>
-    <t>2 505</t>
-  </si>
-  <si>
-    <t>857 809</t>
-  </si>
-  <si>
     <t>Sud-Provence-Alpes-Côte d’Azur</t>
-  </si>
-  <si>
-    <t>31 400</t>
-  </si>
-  <si>
-    <t>5 088 998</t>
   </si>
   <si>
     <t>Sources :</t>
@@ -200,6 +95,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -280,9 +178,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -309,6 +204,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -747,7 +645,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C19" sqref="B3:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -757,467 +655,467 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
+      <c r="B1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
     </row>
     <row r="2" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="B2" s="11">
+        <v>69711</v>
+      </c>
+      <c r="C2" s="11">
+        <v>8090442</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>47784</v>
+      </c>
+      <c r="C3" s="11">
+        <v>2784858</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>27208</v>
+      </c>
+      <c r="C4" s="11">
+        <v>3371158</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>39151</v>
+      </c>
+      <c r="C5" s="11">
+        <v>3371158</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>8680</v>
+      </c>
+      <c r="C6" s="11">
+        <v>349269</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>57433</v>
+      </c>
+      <c r="C7" s="11">
+        <v>5522476</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1703</v>
+      </c>
+      <c r="C8" s="11">
+        <v>375693</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>83534</v>
+      </c>
+      <c r="C9" s="11">
+        <v>294146</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>31813</v>
+      </c>
+      <c r="C10" s="11">
+        <v>5975757</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>12011</v>
+      </c>
+      <c r="C11" s="11">
+        <v>12324261</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1128</v>
+      </c>
+      <c r="C12" s="11">
+        <v>354824</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>2504</v>
+      </c>
+      <c r="C13" s="11">
+        <v>288926</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>29906</v>
+      </c>
+      <c r="C14" s="11">
+        <v>3305218</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>83809</v>
+      </c>
+      <c r="C15" s="11">
+        <v>6039092</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>72724</v>
+      </c>
+      <c r="C16" s="11">
+        <v>5985697</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>32082</v>
+      </c>
+      <c r="C17" s="11">
+        <v>3837166</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>2505</v>
+      </c>
+      <c r="C18" s="11">
+        <v>857809</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>31400</v>
+      </c>
+      <c r="C19" s="11">
+        <v>5088998</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>55</v>
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
